--- a/data/trans_dic/P21D_6_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21D_6_R-Estudios-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.003937171235829185</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.02157926946519914</v>
+        <v>0.02157926946519915</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.01433372854883839</v>
@@ -584,10 +584,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01159850358840524</v>
+        <v>0.01168406563804062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.007396872140696283</v>
+        <v>0.008186763289449003</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02162213452133535</v>
+        <v>0.02247298658359294</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03415261365099364</v>
+        <v>0.03477707464699144</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02331330901750325</v>
+        <v>0.02451423543503607</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.0127812868780751</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.009517487044055525</v>
+        <v>0.009517487044055526</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001992966433211091</v>
+        <v>0.001970226405711404</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007368264838189714</v>
+        <v>0.007893782369685425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.006206003843316031</v>
+        <v>0.00620215896558496</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01483266762384365</v>
+        <v>0.01370905954845712</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0210808406235143</v>
+        <v>0.02080432203019508</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01414616942726593</v>
+        <v>0.01489629374111644</v>
       </c>
     </row>
     <row r="10">
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0007414761399267618</v>
+        <v>0.0007427370620296326</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01954499624931825</v>
+        <v>0.01720235800282807</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.007523963321714005</v>
+        <v>0.008529873496910461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01041843901694249</v>
+        <v>0.01050195960657</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.005538694427306535</v>
+        <v>0.005538694427306536</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.01238201355906253</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.009099297612554224</v>
+        <v>0.009099297612554225</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.00250034419575901</v>
+        <v>0.002528895964736282</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.008322727307176999</v>
+        <v>0.008915634070809926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.006577635762444619</v>
+        <v>0.006475276705461813</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01156543186454738</v>
+        <v>0.01118561679582531</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.01731301938681816</v>
+        <v>0.01784526490029612</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01244742191704734</v>
+        <v>0.01229406910767386</v>
       </c>
     </row>
     <row r="16">
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4205</v>
+        <v>4236</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>4550</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5463</v>
+        <v>5678</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>12381</v>
+        <v>12608</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14342</v>
+        <v>15081</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1910</v>
+        <v>1888</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7262</v>
+        <v>7779</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12065</v>
+        <v>12057</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14217</v>
+        <v>13140</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>20776</v>
+        <v>20503</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>27501</v>
+        <v>28959</v>
       </c>
     </row>
     <row r="12">
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6786</v>
+        <v>5973</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2575</v>
+        <v>2919</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>7183</v>
+        <v>7241</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3896</v>
+        <v>3941</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14068</v>
+        <v>15070</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>21368</v>
+        <v>21036</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18023</v>
+        <v>17431</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29264</v>
+        <v>30164</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>40437</v>
+        <v>39939</v>
       </c>
     </row>
     <row r="20">
